--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00002.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00002.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="8960" yWindow="9400" windowWidth="24780" windowHeight="9880" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$F$33</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Asset_Cal_Info!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
@@ -25,17 +25,22 @@
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$403</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$403</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -89,9 +94,6 @@
   </si>
   <si>
     <t>Calibration Cofficient Value</t>
-  </si>
-  <si>
-    <t>CP02PMUO-RII01-02-ADCPTL000</t>
   </si>
   <si>
     <t>CC_depth</t>
@@ -268,15 +270,9 @@
     <t>CP02PMUO-SBS01-00-STCENG000</t>
   </si>
   <si>
-    <t>PMUO-00002-STC</t>
-  </si>
-  <si>
     <t>This serial number is a placekeeper used until the correct serial number is found or defined</t>
   </si>
   <si>
-    <t>CP02PMUO-SBS01-00-RTE000000</t>
-  </si>
-  <si>
     <t>CP02PMUO-WFP01-00-WFPENG000</t>
   </si>
   <si>
@@ -289,10 +285,29 @@
     <t>PMUO-00002-MOPAK</t>
   </si>
   <si>
-    <t>39°56.2740'N</t>
-  </si>
-  <si>
-    <t>70°46.1460'W</t>
+    <t>39° 56.279' N</t>
+  </si>
+  <si>
+    <t>70° 46.145' W</t>
+  </si>
+  <si>
+    <r>
+      <t>CP02PMUO-RII01-02-ADCPTL0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>SWE 0005-G</t>
   </si>
 </sst>
 </file>
@@ -302,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,8 +390,40 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +440,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDEADA"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -434,13 +487,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,17 +508,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,22 +530,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -524,8 +580,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -894,137 +972,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125"/>
-    <col min="4" max="4" width="24.140625"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="8" width="18.7109375"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="37.42578125"/>
-    <col min="12" max="12" width="13"/>
-    <col min="13" max="13" width="13.7109375"/>
-    <col min="14" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="8" width="16" customWidth="1"/>
+    <col min="9" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
         <v>41603</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.87361111111111101</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>41743</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="G2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="3">
         <v>450</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="4">
-        <v>39.937899999999999</v>
-      </c>
-      <c r="M2" s="4">
-        <v>-70.769099999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.85546875"/>
-    <col min="2" max="2" width="28.42578125"/>
-    <col min="3" max="3" width="24.28515625"/>
-    <col min="4" max="4" width="26.7109375"/>
-    <col min="5" max="5" width="47"/>
-    <col min="6" max="6" width="28.42578125"/>
-    <col min="7" max="7" width="11.5703125"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,855 +1102,854 @@
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>18445</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="12">
-        <v>2</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="F2" s="25">
+        <v>430000</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
         <v>18445</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13">
-        <v>427.37</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="F3" s="13">
+        <v>39.9379833333333</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
         <v>18445</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F4" s="13">
+        <v>-70.769083333333299</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2499</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="15">
+        <v>-838.6</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2499</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13">
         <v>39.9379833333333</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12">
-        <v>18445</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="14">
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2499</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13">
         <v>-70.769083333333299</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
         <v>2499</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="16">
-        <v>-838.6</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="F11" s="15">
+        <v>3.1058000000000002E-4</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
         <v>2499</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="15">
+        <v>-2.6675000000000002E-3</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2499</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1.5181999999999999E-4</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2499</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-3.1155000000000001E-6</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2499</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>113</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="13">
+        <v>39.9379833333333</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>113</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F18" s="13">
+        <v>-70.769083333333299</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>100013</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="13">
         <v>39.9379833333333</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>2499</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14">
+        <v>100013</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="13">
         <v>-70.769083333333299</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>2499</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3.1058000000000002E-4</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2499</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="16">
-        <v>-2.6675000000000002E-3</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>2499</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1.5181999999999999E-4</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15">
-        <v>2499</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16">
-        <v>-3.1155000000000001E-6</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12">
-        <v>2</v>
-      </c>
-      <c r="D13" s="15">
-        <v>2499</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="16">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12">
-        <v>113</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="14">
-        <v>39.9379833333333</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="12">
-        <v>2</v>
-      </c>
-      <c r="D16" s="12">
-        <v>113</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="14">
-        <v>-70.769083333333299</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15">
-        <v>100013</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="14">
-        <v>39.9379833333333</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15">
-        <v>100013</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="14">
-        <v>-70.769083333333299</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1031</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="12">
-        <v>2</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="F23" s="26">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11">
         <v>1031</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="12">
+        <v>49</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1031</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="12">
+        <v>51</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1031</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="12">
+        <v>51</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1031</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="26">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="13">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="12">
-        <v>2</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11">
         <v>1031</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="26">
+        <v>700</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1031</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="F29" s="12">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11">
         <v>1031</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="12">
-        <v>2</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="F30" s="12">
+        <v>1.21E-2</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11">
         <v>1031</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="18">
+        <v>3.5300000000000001E-6</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="13">
-        <v>51</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="12">
-        <v>2</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11">
         <v>1031</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="13">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="12">
-        <v>2</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1031</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="13">
-        <v>700</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="12">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1031</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="13">
-        <v>9.0700000000000003E-2</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="12">
-        <v>2</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1031</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1.21E-2</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="12">
-        <v>2</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1031</v>
-      </c>
-      <c r="E29" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="19">
-        <v>3.5300000000000001E-6</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="12">
-        <v>2</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1031</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="F32" s="26">
+        <v>124</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="13">
-        <v>124</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="B34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>20447</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="12">
-        <v>2</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="F34" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11">
         <v>20447</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="G32" s="17" t="s">
+      <c r="E35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="12">
-        <v>2</v>
-      </c>
-      <c r="D33" s="12">
-        <v>20447</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="F35" s="18">
+        <v>1.0000000000000001E-17</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="19">
-        <v>1.0000000000000001E-17</v>
-      </c>
-      <c r="G33" s="17" t="s">
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="B39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="12">
-        <v>2</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="12">
-        <v>2</v>
-      </c>
-      <c r="D36" s="12">
-        <v>950</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="12">
-        <v>2</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="12">
-        <v>2</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00002.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="9400" windowWidth="24780" windowHeight="9880" tabRatio="377"/>
+    <workbookView xWindow="8955" yWindow="9405" windowWidth="24780" windowHeight="9885" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -291,23 +291,24 @@
     <t>70° 46.145' W</t>
   </si>
   <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>SWE 0005-G</t>
+  </si>
+  <si>
     <r>
-      <t>CP02PMUO-RII01-02-ADCPTL0</t>
+      <t>CP02PMUO-RII01-02-ADCPSL0</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
-  </si>
-  <si>
-    <t>units = mm</t>
-  </si>
-  <si>
-    <t>SWE 0005-G</t>
   </si>
 </sst>
 </file>
@@ -394,11 +395,13 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -420,6 +423,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -978,16 +982,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="8" width="16" customWidth="1"/>
-    <col min="9" max="11" width="15.6640625" customWidth="1"/>
+    <col min="9" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1059,7 @@
       </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
@@ -1075,21 +1079,21 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,9 +1113,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -1129,15 +1133,15 @@
         <v>430000</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
@@ -1159,9 +1163,9 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
@@ -1183,7 +1187,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1195,7 +1199,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>64</v>
       </c>
@@ -1217,7 +1221,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1243,7 +1247,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1271,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1295,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1317,7 +1321,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1347,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
@@ -1369,7 +1373,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1399,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1425,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1433,7 +1437,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1457,7 +1461,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1481,7 +1485,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1493,7 +1497,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1521,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>35</v>
       </c>
@@ -1541,7 +1545,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1553,7 +1557,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1579,7 +1583,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>38</v>
       </c>
@@ -1605,7 +1609,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1635,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +1661,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
@@ -1683,7 +1687,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1713,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
@@ -1735,7 +1739,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
@@ -1761,7 +1765,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +1791,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1813,7 +1817,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1825,7 +1829,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>55</v>
       </c>
@@ -1851,7 +1855,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
@@ -1877,7 +1881,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1889,7 +1893,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1909,7 +1913,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="20"/>
@@ -1931,7 +1935,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>

--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00002.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP02PMUO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="9405" windowWidth="24780" windowHeight="9885" tabRatio="377"/>
+    <workbookView xWindow="8955" yWindow="9405" windowWidth="24780" windowHeight="9885" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$403</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -282,9 +287,6 @@
     <t>CP02PMUO-SBS01-01-MOPAK0000</t>
   </si>
   <si>
-    <t>PMUO-00002-MOPAK</t>
-  </si>
-  <si>
     <t>39° 56.279' N</t>
   </si>
   <si>
@@ -310,6 +312,9 @@
       <t>10</t>
     </r>
   </si>
+  <si>
+    <t>CP02PMUO-MOPAK</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -426,6 +431,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -526,7 +537,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,6 +610,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -685,6 +699,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -732,7 +749,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,7 +784,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +1008,7 @@
     <col min="9" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1046,10 +1063,10 @@
         <v>41743</v>
       </c>
       <c r="G2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="I2" s="3">
         <v>450</v>
@@ -1058,8 +1075,16 @@
         <v>13</v>
       </c>
       <c r="K2" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="29">
+        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+        <v>39.937983333333335</v>
+      </c>
+      <c r="M2" s="29">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+        <v>-70.769083333333327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
     </row>
@@ -1078,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1140,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -1133,7 +1158,7 @@
         <v>430000</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1141,7 +1166,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
@@ -1165,7 +1190,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
@@ -1210,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1924,13 +1949,11 @@
         <v>2</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="G39" s="21"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
